--- a/FioriAutomationFramework/Data/Data.xlsx
+++ b/FioriAutomationFramework/Data/Data.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="2100" windowWidth="17124" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22104" windowHeight="7164" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Fields" r:id="rId1" sheetId="1"/>
-    <sheet name="Tables" r:id="rId2" sheetId="2"/>
+    <sheet name="Fields" sheetId="1" r:id="rId1"/>
+    <sheet name="Tables" sheetId="2" r:id="rId2"/>
+    <sheet name="Custom Actions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>Input</t>
   </si>
@@ -124,17 +125,73 @@
     <t>C4-PFP004</t>
   </si>
   <si>
-    <t>000000064187</t>
-  </si>
-  <si>
     <t>000000064188</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>House Bank Acct ID</t>
+  </si>
+  <si>
+    <t>AEAC1</t>
+  </si>
+  <si>
+    <t>Bank Statement No.</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>Bank Statement Date</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>DEBK1</t>
+  </si>
+  <si>
+    <t>House Bank</t>
+  </si>
+  <si>
+    <t>Company Code</t>
+  </si>
+  <si>
+    <t>Manual Transaction</t>
+  </si>
+  <si>
+    <t>F001</t>
+  </si>
+  <si>
+    <t>Value Date</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Bank Statement Items</t>
+  </si>
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>09/18/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,23 +246,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -222,10 +281,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -260,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -295,7 +354,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -389,21 +448,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -420,7 +479,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -472,24 +531,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="56.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="1" max="1" width="56.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -579,7 +638,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -607,46 +666,74 @@
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="6">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1010</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="1" max="2" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -657,170 +744,221 @@
       <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="F14" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>